--- a/data/case1/20/P_device_3.xlsx
+++ b/data/case1/20/P_device_3.xlsx
@@ -53,43 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.0060659543863773755</v>
+        <v>0.043651242330346826</v>
       </c>
       <c r="B1" s="0">
-        <v>0.0060659534739489086</v>
+        <v>-0.043651242413485267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0080092664600348897</v>
+        <v>-0.017889369357630615</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0080092654794438646</v>
+        <v>0.017889369269980131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.011984195476893675</v>
+        <v>-0.028339889734841812</v>
       </c>
       <c r="B3" s="0">
-        <v>0.011984194533404767</v>
+        <v>0.028339889644740306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.067955531977483954</v>
+        <v>0.0048007699384992634</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.067955532868304816</v>
+        <v>-0.0048007700213412103</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>0.072839425633565935</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.072839425718507017</v>
       </c>
     </row>
   </sheetData>
